--- a/medicine/Psychotrope/Gringo_(film)/Gringo_(film).xlsx
+++ b/medicine/Psychotrope/Gringo_(film)/Gringo_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gringo, ou La Rançon au Québec, est une comédie américaine réalisée par Nash Edgerton, sorti en 2018.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Harold Soyinka (David Oyelowo) est un homme d'affaires, fraîchement marié, qui travaille pour la Cannabix Technologies Inc., une compagnie pharmaceutique qui a transformé de la marijuana à des fins médicales, en pilules. Ses patrons, Elaine Markinson (Charlize Theron) et Richard Rusk (Joel Edgerton), l'envoient au Mexique pour qu'il gère la manufacture de cette nouvelle drogue. Mais Harold est aussitôt kidnappé par le cartel mexicain, qui refuse la concurrence. Bloqué et recherché dans le mauvais côté de la frontière, Harold va devoir survivre alors que, pendant ce temps, son boss Rusk emploie un mercenaire professionnel, Mitch (Sharlto Copley), qui n'est d'autre que son frère, pour le sauver...
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original et français : Gringo
 Titre québécois : La Rançon
@@ -590,7 +606,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>David Oyelowo (VF : Jean-Baptiste Anoumon ; VQ : Marc-André Bélanger) : Harold Soyinka
 Charlize Theron (VF : Déborah Perret ; VQ : Camille Cyr-Desmarais) : Elaine Markinson
@@ -611,7 +629,7 @@
 Bashir Salahuddin : Stu
 Hector Kotsifakis : Roberto Vega
 Charles E. Tiedje : agent Durling
- Source et légende : version française (VF) sur RS Doublage[1] ; version québécoise (VQ) sur Doublage.qc.ca[2]</t>
+ Source et légende : version française (VF) sur RS Doublage ; version québécoise (VQ) sur Doublage.qc.ca</t>
         </is>
       </c>
     </row>
@@ -641,11 +659,50 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Genèse et développement
-Attribution des rôles
-Il s'agit du premier film de Paris Jackson, fille de Michael Jackson.
-Tournage
-Le tournage a eu lieu entre le Mexique (Veracruz et Mexico) et les États-Unis (Chicago, Naperville, Lisle et Santa Clarita)[3].
+          <t>Attribution des rôles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit du premier film de Paris Jackson, fille de Michael Jackson.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gringo_(film)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gringo_(film)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage a eu lieu entre le Mexique (Veracruz et Mexico) et les États-Unis (Chicago, Naperville, Lisle et Santa Clarita).
 </t>
         </is>
       </c>
